--- a/DR-june-18.xlsx
+++ b/DR-june-18.xlsx
@@ -1877,14 +1877,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -1917,6 +1909,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
@@ -1940,18 +1940,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1989,28 +1977,16 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2138,6 +2114,30 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2423,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2458,17 +2458,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -2498,76 +2498,76 @@
       <c r="J2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -2601,22 +2601,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -2676,10 +2676,10 @@
         <f>E6-F6-G6</f>
         <v>409.23200000000003</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>18</v>
@@ -2748,10 +2748,10 @@
         <f>E7-F7-G7</f>
         <v>192</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>0</v>
@@ -2820,10 +2820,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>138.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -2892,10 +2892,10 @@
         <f t="shared" si="0"/>
         <v>54.37</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>409.23200000000003</v>
@@ -2963,21 +2963,21 @@
         <f t="shared" si="0"/>
         <v>152.44999999999999</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -3002,21 +3002,21 @@
         <f>E11-F11-G11</f>
         <v>107.009</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -3043,10 +3043,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>6.84</v>
@@ -3377,7 +3377,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -3456,7 +3456,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -3540,10 +3540,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -3616,10 +3616,10 @@
       <c r="D22" s="80">
         <v>25</v>
       </c>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>69</v>
       </c>
@@ -3635,10 +3635,10 @@
         <f>I22*1.16</f>
         <v>55.227599999999995</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -3691,10 +3691,10 @@
       <c r="D23" s="80">
         <v>2.5</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>40</v>
       </c>
@@ -3710,12 +3710,12 @@
         <f>I23*1.16</f>
         <v>32.015999999999998</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -3731,10 +3731,10 @@
       <c r="D24" s="80">
         <v>20</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>30</v>
       </c>
@@ -3779,10 +3779,10 @@
       <c r="D25" s="80">
         <v>45</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>20</v>
       </c>
@@ -3820,10 +3820,10 @@
       <c r="D26" s="80">
         <v>60</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>20</v>
       </c>
@@ -3860,10 +3860,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93"/>
       <c r="J27" s="84">
         <f>(G27*0.8)</f>
@@ -3898,10 +3898,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>50</v>
       </c>
@@ -3933,10 +3933,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>50</v>
@@ -3980,10 +3980,10 @@
         <f>SUM(D23:D29)</f>
         <v>166.75</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -4016,25 +4016,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -4044,20 +4044,20 @@
       <c r="A33" s="140">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151">
         <f>1020-989</f>
         <v>31</v>
@@ -4068,20 +4068,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -4089,18 +4089,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -4108,18 +4108,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -4129,18 +4129,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
@@ -4175,7 +4175,6 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="N32:O32"/>
     <mergeCell ref="B33:M33"/>
     <mergeCell ref="N33:O37"/>
     <mergeCell ref="B34:M34"/>
@@ -4186,6 +4185,7 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A32:M32"/>
+    <mergeCell ref="N32:O32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4231,17 +4231,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -4271,76 +4271,76 @@
       <c r="J2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -4374,22 +4374,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -4451,10 +4451,10 @@
         <f>E6-F6-G6</f>
         <v>286.73199999999997</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>0</v>
@@ -4527,10 +4527,10 @@
         <f>E7-F7-G7</f>
         <v>147</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>15</v>
@@ -4601,10 +4601,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>113.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -4675,10 +4675,10 @@
         <f t="shared" si="0"/>
         <v>53.120000000000005</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>286.73199999999997</v>
@@ -4750,21 +4750,21 @@
         <f t="shared" si="0"/>
         <v>167.45</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -4793,21 +4793,21 @@
         <f>E11-F11-G11</f>
         <v>117.509</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -4834,10 +4834,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>0</v>
@@ -5168,7 +5168,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -5247,7 +5247,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -5331,10 +5331,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -5405,10 +5405,10 @@
         <v>100</v>
       </c>
       <c r="D22" s="80"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>34</v>
       </c>
@@ -5424,10 +5424,10 @@
         <f>I22*1.16</f>
         <v>27.2136</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -5480,10 +5480,10 @@
       <c r="D23" s="80">
         <v>2.5</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>62</v>
       </c>
@@ -5499,12 +5499,12 @@
         <f>I23*1.16</f>
         <v>49.6248</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -5520,10 +5520,10 @@
       <c r="D24" s="80">
         <v>20</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>37</v>
       </c>
@@ -5568,10 +5568,10 @@
       <c r="D25" s="80">
         <v>45</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>70</v>
       </c>
@@ -5609,10 +5609,10 @@
       <c r="D26" s="80">
         <v>58</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>20</v>
       </c>
@@ -5649,10 +5649,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93">
         <v>0</v>
       </c>
@@ -5689,10 +5689,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>105</v>
       </c>
@@ -5724,10 +5724,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>105</v>
@@ -5771,10 +5771,10 @@
         <f>SUM(D23:D29)</f>
         <v>164.75</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -5807,25 +5807,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -5835,20 +5835,20 @@
       <c r="A33" s="130">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151"/>
       <c r="O33" s="152"/>
     </row>
@@ -5856,20 +5856,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -5877,18 +5877,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -5896,18 +5896,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -5917,18 +5917,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
@@ -6019,17 +6019,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -6059,76 +6059,76 @@
       <c r="J2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -6162,22 +6162,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -6239,10 +6239,10 @@
         <f>E6-F6-G6</f>
         <v>301.73199999999997</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>9</v>
@@ -6315,10 +6315,10 @@
         <f>E7-F7-G7</f>
         <v>144.5</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>0</v>
@@ -6389,10 +6389,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>113.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -6463,10 +6463,10 @@
         <f t="shared" si="0"/>
         <v>53.120000000000005</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>301.73199999999997</v>
@@ -6538,21 +6538,21 @@
         <f t="shared" si="0"/>
         <v>163.95</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -6581,21 +6581,21 @@
         <f>E11-F11-G11</f>
         <v>104.509</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -6622,10 +6622,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>3.42</v>
@@ -6956,7 +6956,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -7035,7 +7035,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -7119,10 +7119,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -7193,10 +7193,10 @@
         <v>100</v>
       </c>
       <c r="D22" s="80"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>65</v>
       </c>
@@ -7212,10 +7212,10 @@
         <f>I22*1.16</f>
         <v>52.025999999999996</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -7268,10 +7268,10 @@
       <c r="D23" s="80">
         <v>10</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>20</v>
       </c>
@@ -7287,12 +7287,12 @@
         <f>I23*1.16</f>
         <v>16.007999999999999</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -7308,10 +7308,10 @@
       <c r="D24" s="80">
         <v>35.25</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>55</v>
       </c>
@@ -7356,10 +7356,10 @@
       <c r="D25" s="80">
         <v>50</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>20</v>
       </c>
@@ -7397,10 +7397,10 @@
       <c r="D26" s="80">
         <v>62</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>20</v>
       </c>
@@ -7437,10 +7437,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93">
         <v>0</v>
       </c>
@@ -7477,10 +7477,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>110</v>
       </c>
@@ -7512,10 +7512,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>110</v>
@@ -7559,10 +7559,10 @@
         <f>SUM(D23:D29)</f>
         <v>196.5</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -7595,25 +7595,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -7623,20 +7623,20 @@
       <c r="A33" s="129">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151"/>
       <c r="O33" s="152"/>
     </row>
@@ -7644,20 +7644,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -7665,18 +7665,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -7684,18 +7684,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -7705,18 +7705,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
@@ -7807,17 +7807,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -7847,76 +7847,76 @@
       <c r="J2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -7950,22 +7950,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -8027,10 +8027,10 @@
         <f>E6-F6-G6</f>
         <v>292.73199999999997</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>18</v>
@@ -8103,10 +8103,10 @@
         <f>E7-F7-G7</f>
         <v>134.5</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>9.5</v>
@@ -8177,10 +8177,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>113.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <f t="shared" si="0"/>
         <v>53.120000000000005</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>292.73199999999997</v>
@@ -8326,21 +8326,21 @@
         <f t="shared" si="0"/>
         <v>155.94999999999999</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -8369,21 +8369,21 @@
         <f>E11-F11-G11</f>
         <v>96.509</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -8410,10 +8410,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>6.84</v>
@@ -8744,7 +8744,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -8823,7 +8823,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -8907,10 +8907,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -8981,10 +8981,10 @@
         <v>100</v>
       </c>
       <c r="D22" s="80"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>20</v>
       </c>
@@ -9000,10 +9000,10 @@
         <f>I22*1.16</f>
         <v>16.007999999999999</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -9056,10 +9056,10 @@
       <c r="D23" s="80">
         <v>10</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>65</v>
       </c>
@@ -9075,12 +9075,12 @@
         <f>I23*1.16</f>
         <v>52.025999999999996</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -9096,10 +9096,10 @@
       <c r="D24" s="80">
         <v>35.25</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>60</v>
       </c>
@@ -9144,10 +9144,10 @@
       <c r="D25" s="80">
         <v>50</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>20</v>
       </c>
@@ -9185,10 +9185,10 @@
       <c r="D26" s="80">
         <v>62</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>20</v>
       </c>
@@ -9225,10 +9225,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93">
         <v>0</v>
       </c>
@@ -9265,10 +9265,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>110</v>
       </c>
@@ -9300,10 +9300,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>110</v>
@@ -9347,10 +9347,10 @@
         <f>SUM(D23:D29)</f>
         <v>196.5</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -9383,25 +9383,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -9411,20 +9411,20 @@
       <c r="A33" s="128">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151"/>
       <c r="O33" s="152"/>
     </row>
@@ -9432,20 +9432,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -9453,18 +9453,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -9472,18 +9472,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -9493,18 +9493,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
@@ -9595,17 +9595,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -9635,76 +9635,76 @@
       <c r="J2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -9738,22 +9738,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -9815,10 +9815,10 @@
         <f>E6-F6-G6</f>
         <v>284.23199999999997</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>0</v>
@@ -9891,10 +9891,10 @@
         <f>E7-F7-G7</f>
         <v>123.5</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>0</v>
@@ -9965,10 +9965,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>113.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -10039,10 +10039,10 @@
         <f t="shared" si="0"/>
         <v>53.120000000000005</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>284.23199999999997</v>
@@ -10114,21 +10114,21 @@
         <f t="shared" si="0"/>
         <v>155.94999999999999</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -10157,21 +10157,21 @@
         <f>E11-F11-G11</f>
         <v>103.009</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -10198,10 +10198,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>0</v>
@@ -10532,7 +10532,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -10611,7 +10611,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -10695,10 +10695,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -10769,10 +10769,10 @@
         <v>100</v>
       </c>
       <c r="D22" s="80"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>60</v>
       </c>
@@ -10788,10 +10788,10 @@
         <f>I22*1.16</f>
         <v>48.023999999999994</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -10844,10 +10844,10 @@
       <c r="D23" s="80">
         <v>10</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>70</v>
       </c>
@@ -10863,12 +10863,12 @@
         <f>I23*1.16</f>
         <v>56.027999999999999</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -10884,10 +10884,10 @@
       <c r="D24" s="80">
         <v>35.25</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>70</v>
       </c>
@@ -10932,10 +10932,10 @@
       <c r="D25" s="80">
         <v>50</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>20</v>
       </c>
@@ -10973,10 +10973,10 @@
       <c r="D26" s="80">
         <v>62</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>20</v>
       </c>
@@ -11013,10 +11013,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93">
         <v>0</v>
       </c>
@@ -11053,10 +11053,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>90</v>
       </c>
@@ -11088,10 +11088,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>90</v>
@@ -11135,10 +11135,10 @@
         <f>SUM(D23:D29)</f>
         <v>196.5</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -11171,25 +11171,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -11199,20 +11199,20 @@
       <c r="A33" s="127">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151"/>
       <c r="O33" s="152"/>
     </row>
@@ -11220,20 +11220,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -11241,18 +11241,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -11260,18 +11260,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -11281,18 +11281,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
@@ -11383,17 +11383,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -11423,76 +11423,76 @@
       <c r="J2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -11526,22 +11526,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -11603,10 +11603,10 @@
         <f>E6-F6-G6</f>
         <v>391.23200000000003</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>9</v>
@@ -11679,10 +11679,10 @@
         <f>E7-F7-G7</f>
         <v>192</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>4</v>
@@ -11753,10 +11753,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>138.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -11827,10 +11827,10 @@
         <f t="shared" si="0"/>
         <v>54.37</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>391.23200000000003</v>
@@ -11898,21 +11898,21 @@
         <f t="shared" si="0"/>
         <v>152.44999999999999</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -11939,21 +11939,21 @@
         <f>E11-F11-G11</f>
         <v>107.009</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -11980,10 +11980,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>3.42</v>
@@ -12314,7 +12314,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -12393,7 +12393,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -12477,10 +12477,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -12553,10 +12553,10 @@
       <c r="D22" s="80">
         <v>25</v>
       </c>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>40</v>
       </c>
@@ -12572,10 +12572,10 @@
         <f>I22*1.16</f>
         <v>32.015999999999998</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -12628,10 +12628,10 @@
       <c r="D23" s="80">
         <v>2.5</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>20</v>
       </c>
@@ -12647,12 +12647,12 @@
         <f>I23*1.16</f>
         <v>16.007999999999999</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -12668,10 +12668,10 @@
       <c r="D24" s="80">
         <v>20</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>70</v>
       </c>
@@ -12716,10 +12716,10 @@
       <c r="D25" s="80">
         <v>45</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>20</v>
       </c>
@@ -12757,10 +12757,10 @@
       <c r="D26" s="80">
         <v>60</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>20</v>
       </c>
@@ -12797,10 +12797,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93"/>
       <c r="J27" s="84">
         <f>(G27*0.8)</f>
@@ -12835,10 +12835,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>70</v>
       </c>
@@ -12870,10 +12870,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>70</v>
@@ -12917,10 +12917,10 @@
         <f>SUM(D23:D29)</f>
         <v>166.75</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -12953,25 +12953,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -12981,20 +12981,20 @@
       <c r="A33" s="139">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151">
         <f>1020-989</f>
         <v>31</v>
@@ -13005,20 +13005,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -13026,18 +13026,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -13045,18 +13045,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -13066,18 +13066,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
@@ -13168,17 +13168,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -13208,76 +13208,76 @@
       <c r="J2" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -13311,22 +13311,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -13388,10 +13388,10 @@
         <f>E6-F6-G6</f>
         <v>386.23200000000003</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>18</v>
@@ -13462,10 +13462,10 @@
         <f>E7-F7-G7</f>
         <v>183</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>0</v>
@@ -13536,10 +13536,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>138.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -13610,10 +13610,10 @@
         <f t="shared" si="0"/>
         <v>59.87</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>386.23200000000003</v>
@@ -13681,21 +13681,21 @@
         <f t="shared" si="0"/>
         <v>152.44999999999999</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -13720,21 +13720,21 @@
         <f>E11-F11-G11</f>
         <v>113.009</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -13761,10 +13761,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>6.84</v>
@@ -14095,7 +14095,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -14174,7 +14174,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -14258,10 +14258,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -14334,10 +14334,10 @@
       <c r="D22" s="80">
         <v>25</v>
       </c>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>60</v>
       </c>
@@ -14353,10 +14353,10 @@
         <f>I22*1.16</f>
         <v>48.023999999999994</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -14409,10 +14409,10 @@
       <c r="D23" s="80">
         <v>2.5</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>59</v>
       </c>
@@ -14428,12 +14428,12 @@
         <f>I23*1.16</f>
         <v>47.223599999999998</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -14449,10 +14449,10 @@
       <c r="D24" s="80">
         <v>20</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>38</v>
       </c>
@@ -14497,10 +14497,10 @@
       <c r="D25" s="80">
         <v>45</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>20</v>
       </c>
@@ -14538,10 +14538,10 @@
       <c r="D26" s="80">
         <v>60</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>20</v>
       </c>
@@ -14578,10 +14578,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93"/>
       <c r="J27" s="84">
         <f>(G27*0.8)</f>
@@ -14616,10 +14616,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>50</v>
       </c>
@@ -14651,10 +14651,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>50</v>
@@ -14698,10 +14698,10 @@
         <f>SUM(D23:D29)</f>
         <v>166.75</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -14734,25 +14734,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -14762,20 +14762,20 @@
       <c r="A33" s="137">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151">
         <f>1020-989</f>
         <v>31</v>
@@ -14786,20 +14786,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -14807,18 +14807,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -14826,18 +14826,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -14847,18 +14847,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
@@ -14949,17 +14949,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -14989,76 +14989,76 @@
       <c r="J2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -15092,22 +15092,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -15167,10 +15167,10 @@
         <f>E6-F6-G6</f>
         <v>368.23200000000003</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>0</v>
@@ -15243,10 +15243,10 @@
         <f>E7-F7-G7</f>
         <v>183</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>0</v>
@@ -15317,10 +15317,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>138.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -15391,10 +15391,10 @@
         <f t="shared" si="0"/>
         <v>59.87</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>368.23200000000003</v>
@@ -15464,21 +15464,21 @@
         <f t="shared" si="0"/>
         <v>152.44999999999999</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -15503,21 +15503,21 @@
         <f>E11-F11-G11</f>
         <v>113.009</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -15544,10 +15544,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>0</v>
@@ -15878,7 +15878,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -15957,7 +15957,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -16041,10 +16041,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -16117,10 +16117,10 @@
       <c r="D22" s="80">
         <v>25</v>
       </c>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>70</v>
       </c>
@@ -16136,10 +16136,10 @@
         <f>I22*1.16</f>
         <v>56.027999999999999</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -16192,10 +16192,10 @@
       <c r="D23" s="80">
         <v>2.5</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>39</v>
       </c>
@@ -16211,12 +16211,12 @@
         <f>I23*1.16</f>
         <v>31.215599999999998</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -16232,10 +16232,10 @@
       <c r="D24" s="80">
         <v>20</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>45</v>
       </c>
@@ -16280,10 +16280,10 @@
       <c r="D25" s="80">
         <v>45</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>20</v>
       </c>
@@ -16321,10 +16321,10 @@
       <c r="D26" s="80">
         <v>60</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>20</v>
       </c>
@@ -16361,10 +16361,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93">
         <v>0</v>
       </c>
@@ -16401,10 +16401,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>70</v>
       </c>
@@ -16436,10 +16436,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>70</v>
@@ -16483,10 +16483,10 @@
         <f>SUM(D23:D29)</f>
         <v>166.75</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -16519,25 +16519,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -16547,20 +16547,20 @@
       <c r="A33" s="136">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151">
         <f>1020-989</f>
         <v>31</v>
@@ -16571,20 +16571,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -16592,18 +16592,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -16611,18 +16611,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -16632,18 +16632,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
@@ -16734,17 +16734,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -16774,76 +16774,76 @@
       <c r="J2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -16877,22 +16877,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -16955,10 +16955,10 @@
         <f>E6-F6-G6</f>
         <v>368.23200000000003</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>19</v>
@@ -17029,10 +17029,10 @@
         <f>E7-F7-G7</f>
         <v>173.5</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>0</v>
@@ -17103,10 +17103,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>138.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -17178,10 +17178,10 @@
         <f t="shared" si="0"/>
         <v>59.87</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>368.23200000000003</v>
@@ -17254,21 +17254,21 @@
         <f t="shared" si="0"/>
         <v>143.94999999999999</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -17296,21 +17296,21 @@
         <f>E11-F11-G11</f>
         <v>113.009</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -17337,10 +17337,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>7.22</v>
@@ -17671,7 +17671,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -17750,7 +17750,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -17834,10 +17834,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -17910,10 +17910,10 @@
       <c r="D22" s="80">
         <v>25</v>
       </c>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>68</v>
       </c>
@@ -17929,10 +17929,10 @@
         <f>I22*1.16</f>
         <v>54.427199999999999</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -17985,10 +17985,10 @@
       <c r="D23" s="80">
         <v>2.5</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>20</v>
       </c>
@@ -18004,12 +18004,12 @@
         <f>I23*1.16</f>
         <v>16.007999999999999</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -18025,10 +18025,10 @@
       <c r="D24" s="80">
         <v>20</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>32</v>
       </c>
@@ -18073,10 +18073,10 @@
       <c r="D25" s="80">
         <v>45</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>20</v>
       </c>
@@ -18114,10 +18114,10 @@
       <c r="D26" s="80">
         <v>60</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>20</v>
       </c>
@@ -18154,10 +18154,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93">
         <v>0</v>
       </c>
@@ -18194,10 +18194,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>130</v>
       </c>
@@ -18229,10 +18229,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>130</v>
@@ -18276,10 +18276,10 @@
         <f>SUM(D23:D29)</f>
         <v>166.75</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -18312,25 +18312,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -18340,20 +18340,20 @@
       <c r="A33" s="135">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151">
         <f>1020-989</f>
         <v>31</v>
@@ -18364,20 +18364,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -18385,18 +18385,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -18404,18 +18404,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -18425,18 +18425,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
@@ -18527,17 +18527,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -18567,76 +18567,76 @@
       <c r="J2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -18670,22 +18670,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -18747,10 +18747,10 @@
         <f>E6-F6-G6</f>
         <v>338.73200000000003</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>19</v>
@@ -18823,10 +18823,10 @@
         <f>E7-F7-G7</f>
         <v>173.5</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>0</v>
@@ -18897,10 +18897,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>138.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -18971,10 +18971,10 @@
         <f t="shared" si="0"/>
         <v>53.120000000000005</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>338.73200000000003</v>
@@ -19046,21 +19046,21 @@
         <f t="shared" si="0"/>
         <v>179.95</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -19089,21 +19089,21 @@
         <f>E11-F11-G11</f>
         <v>98.259</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -19130,10 +19130,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>7.22</v>
@@ -19464,7 +19464,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -19543,7 +19543,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -19627,10 +19627,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -19703,10 +19703,10 @@
       <c r="D22" s="80">
         <v>25</v>
       </c>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>80</v>
       </c>
@@ -19722,10 +19722,10 @@
         <f>I22*1.16</f>
         <v>64.031999999999996</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -19778,10 +19778,10 @@
       <c r="D23" s="80">
         <v>2.5</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>23</v>
       </c>
@@ -19797,12 +19797,12 @@
         <f>I23*1.16</f>
         <v>18.409199999999998</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -19818,10 +19818,10 @@
       <c r="D24" s="80">
         <v>20</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>56</v>
       </c>
@@ -19866,10 +19866,10 @@
       <c r="D25" s="80">
         <v>45</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>70</v>
       </c>
@@ -19907,10 +19907,10 @@
       <c r="D26" s="80">
         <v>60</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>20</v>
       </c>
@@ -19947,10 +19947,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93">
         <v>0</v>
       </c>
@@ -19987,10 +19987,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>70</v>
       </c>
@@ -20022,10 +20022,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>70</v>
@@ -20069,10 +20069,10 @@
         <f>SUM(D23:D29)</f>
         <v>166.75</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -20105,25 +20105,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -20133,20 +20133,20 @@
       <c r="A33" s="134">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151"/>
       <c r="O33" s="152"/>
     </row>
@@ -20154,20 +20154,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -20175,18 +20175,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -20194,18 +20194,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -20215,18 +20215,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
@@ -20317,17 +20317,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -20357,76 +20357,76 @@
       <c r="J2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -20460,22 +20460,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -20538,10 +20538,10 @@
         <f>E6-F6-G6</f>
         <v>319.73200000000003</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>9.5</v>
@@ -20612,10 +20612,10 @@
         <f>E7-F7-G7</f>
         <v>163.5</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>7.75</v>
@@ -20686,10 +20686,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>138.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -20760,10 +20760,10 @@
         <f t="shared" si="0"/>
         <v>53.120000000000005</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>319.73200000000003</v>
@@ -20834,21 +20834,21 @@
         <f t="shared" si="0"/>
         <v>171.95</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -20878,21 +20878,21 @@
         <f>E11-F11-G11</f>
         <v>98.259</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -20919,10 +20919,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>3.61</v>
@@ -21253,7 +21253,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -21332,7 +21332,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -21416,10 +21416,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -21492,10 +21492,10 @@
       <c r="D22" s="80">
         <v>25</v>
       </c>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>75</v>
       </c>
@@ -21511,10 +21511,10 @@
         <f>I22*1.16</f>
         <v>60.029999999999994</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -21567,10 +21567,10 @@
       <c r="D23" s="80">
         <v>2.5</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>18</v>
       </c>
@@ -21586,12 +21586,12 @@
         <f>I23*1.16</f>
         <v>14.4072</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -21607,10 +21607,10 @@
       <c r="D24" s="80">
         <v>20</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>30</v>
       </c>
@@ -21655,10 +21655,10 @@
       <c r="D25" s="80">
         <v>45</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>20</v>
       </c>
@@ -21696,10 +21696,10 @@
       <c r="D26" s="80">
         <v>60</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>20</v>
       </c>
@@ -21736,10 +21736,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93">
         <v>0</v>
       </c>
@@ -21776,10 +21776,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>150</v>
       </c>
@@ -21811,10 +21811,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>150</v>
@@ -21858,10 +21858,10 @@
         <f>SUM(D23:D29)</f>
         <v>166.75</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -21894,25 +21894,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -21922,20 +21922,20 @@
       <c r="A33" s="133">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151"/>
       <c r="O33" s="152"/>
     </row>
@@ -21943,20 +21943,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -21964,18 +21964,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -21983,18 +21983,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -22004,18 +22004,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
@@ -22106,17 +22106,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -22146,76 +22146,76 @@
       <c r="J2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -22249,22 +22249,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -22326,10 +22326,10 @@
         <f>E6-F6-G6</f>
         <v>317.98200000000003</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>10</v>
@@ -22402,10 +22402,10 @@
         <f>E7-F7-G7</f>
         <v>163.5</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>0</v>
@@ -22476,10 +22476,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>138.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <f t="shared" si="0"/>
         <v>53.120000000000005</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>317.98200000000003</v>
@@ -22625,21 +22625,21 @@
         <f t="shared" si="0"/>
         <v>154.44999999999999</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -22668,21 +22668,21 @@
         <f>E11-F11-G11</f>
         <v>101.759</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -22709,10 +22709,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>3.8</v>
@@ -23043,7 +23043,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -23122,7 +23122,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -23206,10 +23206,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -23282,10 +23282,10 @@
       <c r="D22" s="80">
         <v>25</v>
       </c>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>68</v>
       </c>
@@ -23301,10 +23301,10 @@
         <f>I22*1.16</f>
         <v>54.427199999999999</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -23357,10 +23357,10 @@
       <c r="D23" s="80">
         <v>2.5</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>36</v>
       </c>
@@ -23376,12 +23376,12 @@
         <f>I23*1.16</f>
         <v>28.814399999999999</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -23397,10 +23397,10 @@
       <c r="D24" s="80">
         <v>20</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>60</v>
       </c>
@@ -23445,10 +23445,10 @@
       <c r="D25" s="80">
         <v>45</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>20</v>
       </c>
@@ -23486,10 +23486,10 @@
       <c r="D26" s="80">
         <v>60</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>70</v>
       </c>
@@ -23526,10 +23526,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93">
         <v>0</v>
       </c>
@@ -23566,10 +23566,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>90</v>
       </c>
@@ -23601,10 +23601,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>90</v>
@@ -23648,10 +23648,10 @@
         <f>SUM(D23:D29)</f>
         <v>166.75</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -23684,25 +23684,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -23712,20 +23712,20 @@
       <c r="A33" s="132">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151"/>
       <c r="O33" s="152"/>
     </row>
@@ -23733,20 +23733,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -23754,18 +23754,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -23773,18 +23773,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -23794,18 +23794,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
@@ -23896,17 +23896,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -23936,76 +23936,76 @@
       <c r="J2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="197" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-      <c r="L4" s="169" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196"/>
+      <c r="L4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
@@ -24039,22 +24039,22 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="192"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
@@ -24116,10 +24116,10 @@
         <f>E6-F6-G6</f>
         <v>307.98200000000003</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="L6" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="205"/>
       <c r="N6" s="23">
         <f>D6</f>
         <v>19</v>
@@ -24192,10 +24192,10 @@
         <f>E7-F7-G7</f>
         <v>153.5</v>
       </c>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="173"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="23">
         <f>F6</f>
         <v>23.75</v>
@@ -24266,10 +24266,10 @@
         <f t="shared" ref="J8:J12" si="0">E8-F8-G8</f>
         <v>138.5</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="26">
         <f>G6</f>
         <v>0</v>
@@ -24340,10 +24340,10 @@
         <f t="shared" si="0"/>
         <v>53.120000000000005</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="206"/>
       <c r="N9" s="27">
         <f>J6</f>
         <v>307.98200000000003</v>
@@ -24415,21 +24415,21 @@
         <f t="shared" si="0"/>
         <v>155.44999999999999</v>
       </c>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
     </row>
     <row r="11" spans="1:27" ht="21">
       <c r="A11" s="15" t="s">
@@ -24458,21 +24458,21 @@
         <f>E11-F11-G11</f>
         <v>92.759</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
     </row>
     <row r="12" spans="1:27" ht="20.25" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -24499,10 +24499,10 @@
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="163"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="31">
         <f>N6*0.38</f>
         <v>7.22</v>
@@ -24833,7 +24833,7 @@
       <c r="X18" s="118"/>
     </row>
     <row r="19" spans="1:24" ht="45" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -24912,7 +24912,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
@@ -24996,10 +24996,10 @@
       <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="73" t="s">
         <v>68</v>
       </c>
@@ -25072,10 +25072,10 @@
       <c r="D22" s="80">
         <v>25</v>
       </c>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="81">
         <v>74</v>
       </c>
@@ -25091,10 +25091,10 @@
         <f>I22*1.16</f>
         <v>59.229599999999998</v>
       </c>
-      <c r="L22" s="168" t="s">
+      <c r="L22" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="168"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="85">
         <v>0</v>
       </c>
@@ -25147,10 +25147,10 @@
       <c r="D23" s="80">
         <v>2.5</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="144"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="81">
         <v>23</v>
       </c>
@@ -25166,12 +25166,12 @@
         <f>I23*1.16</f>
         <v>18.409199999999998</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="168"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
       <c r="A24" s="77" t="s">
@@ -25187,10 +25187,10 @@
       <c r="D24" s="80">
         <v>20</v>
       </c>
-      <c r="E24" s="143" t="s">
+      <c r="E24" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="144"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="86">
         <v>37</v>
       </c>
@@ -25235,10 +25235,10 @@
       <c r="D25" s="80">
         <v>45</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="144"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="81">
         <v>70</v>
       </c>
@@ -25276,10 +25276,10 @@
       <c r="D26" s="80">
         <v>58</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="144"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="86">
         <v>20</v>
       </c>
@@ -25316,10 +25316,10 @@
       <c r="D27" s="80">
         <v>24</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="144"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="93">
         <v>0</v>
       </c>
@@ -25356,10 +25356,10 @@
       <c r="D28" s="80">
         <v>15.25</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="86">
         <v>100</v>
       </c>
@@ -25391,10 +25391,10 @@
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="144"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="97">
         <f>SUM(G27:G28)</f>
         <v>100</v>
@@ -25438,10 +25438,10 @@
         <f>SUM(D23:D29)</f>
         <v>164.75</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="146"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102">
         <f>F30*6</f>
@@ -25474,25 +25474,25 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:24" ht="24" thickBot="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="149" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="150"/>
+      <c r="O32" s="148"/>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
       <c r="R32" s="110"/>
@@ -25502,20 +25502,20 @@
       <c r="A33" s="131">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="151"/>
       <c r="O33" s="152"/>
     </row>
@@ -25523,20 +25523,20 @@
       <c r="A34" s="111">
         <v>2</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="153"/>
       <c r="O34" s="154"/>
     </row>
@@ -25544,18 +25544,18 @@
       <c r="A35" s="111">
         <v>3</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="153"/>
       <c r="O35" s="154"/>
     </row>
@@ -25563,18 +25563,18 @@
       <c r="A36" s="111">
         <v>4</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="153"/>
       <c r="O36" s="154"/>
       <c r="P36" s="112"/>
@@ -25584,18 +25584,18 @@
       <c r="A37" s="111">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="150"/>
       <c r="N37" s="155"/>
       <c r="O37" s="156"/>
     </row>
